--- a/data_points.xlsx
+++ b/data_points.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Лист2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Лист3" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -23,11 +24,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -43,14 +44,20 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -64,6 +71,10 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -338,97 +349,232 @@
       <c r="A1" s="1">
         <v>1.0</v>
       </c>
-      <c r="B1" s="1">
-        <v>2.0</v>
+      <c r="B1" s="2">
+        <v>1.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1">
         <v>2.0</v>
       </c>
-      <c r="B2" s="1">
-        <v>5.0</v>
+      <c r="B2" s="2">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>3.0</v>
       </c>
-      <c r="B3" s="1">
-        <v>3.0</v>
+      <c r="B3" s="2">
+        <v>9.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1">
         <v>4.0</v>
       </c>
-      <c r="B4" s="1">
-        <v>2.0</v>
+      <c r="B4" s="2">
+        <v>16.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1">
         <v>5.0</v>
       </c>
-      <c r="B5" s="1">
-        <v>1.0</v>
+      <c r="B5" s="2">
+        <v>25.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1">
         <v>6.0</v>
       </c>
-      <c r="B6" s="1">
-        <v>6.0</v>
+      <c r="B6" s="2">
+        <v>36.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B7" s="2">
+        <v>49.0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B8" s="2">
+        <v>64.0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B9" s="2">
+        <v>81.0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B10" s="2">
+        <v>100.0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>5.9</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/data_points.xlsx
+++ b/data_points.xlsx
@@ -18,12 +18,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="#,000_);[Red]\(#,000\)"/>
+    <numFmt numFmtId="176" formatCode="#,000_);[Red]\(#,000\)"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="#,000.0_);[Red]\(#,000.0\)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -42,6 +43,75 @@
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -67,68 +137,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -137,13 +145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -167,6 +168,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
       <charset val="0"/>
@@ -183,13 +191,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,181 +211,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,6 +396,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,70 +481,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -498,154 +499,155 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -920,50 +922,50 @@
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="5">
+      <c r="A1" s="6">
         <v>1</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
     </row>
@@ -987,116 +989,116 @@
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="5">
+      <c r="A1" s="6">
         <v>1</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>3</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>4</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
-      <c r="A6" s="5">
+      <c r="A6" s="6">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>36</v>
       </c>
     </row>
     <row r="7" ht="13.2" spans="1:2">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>7</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>49</v>
       </c>
     </row>
     <row r="8" ht="13.2" spans="1:2">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>64</v>
       </c>
     </row>
     <row r="9" ht="13.2" spans="1:2">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>9</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>81</v>
       </c>
     </row>
     <row r="10" ht="13.2" spans="1:2">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>10</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="11" ht="13.2" spans="1:2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" ht="13.2" spans="1:2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" ht="13.2" spans="1:2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" ht="13.2" spans="1:2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" ht="13.2" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" ht="13.2" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" ht="13.2" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" ht="13.2" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1118,108 +1120,108 @@
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="2">
+      <c r="A1" s="3">
         <v>3.5</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>4</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>4.5</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>5</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>5.9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>7</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" ht="13.2" spans="1:2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
     </row>
     <row r="8" ht="13.2" spans="1:2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
     </row>
     <row r="9" ht="13.2" spans="1:2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" ht="13.2" spans="1:2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" ht="13.2" spans="1:2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" ht="13.2" spans="1:2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
     </row>
     <row r="13" ht="13.2" spans="1:2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="14" ht="13.2" spans="1:2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
     </row>
     <row r="15" ht="13.2" spans="1:2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" ht="13.2" spans="1:2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
     </row>
     <row r="17" ht="13.2" spans="1:2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" ht="13.2" spans="1:2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" ht="13.2" spans="1:2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
     </row>
     <row r="20" ht="13.2" spans="1:2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
     </row>
     <row r="21" ht="13.2" spans="1:2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1233,42 +1235,50 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2.5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1"/>

--- a/data_points.xlsx
+++ b/data_points.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9480" activeTab="3"/>
+    <workbookView windowWidth="23040" windowHeight="9480"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,10 @@
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,000_);[Red]\(#,000\)"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="#,000.0_);[Red]\(#,000.0\)"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="#,000.000000000_);[Red]\(#,000.000000000\)"/>
+    <numFmt numFmtId="178" formatCode="#,000_);[Red]\(#,000\)"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₽&quot;_-;\-* #,##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -61,11 +61,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -129,68 +137,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,19 +211,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,13 +253,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,7 +355,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,127 +379,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,17 +414,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -440,15 +434,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -486,6 +471,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -499,94 +499,115 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,63 +616,44 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,61 +915,205 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="6">
+      <c r="A1" s="8">
         <v>1</v>
       </c>
-      <c r="B1" s="6">
+      <c r="B1" s="8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" ht="13.2" spans="1:2">
+      <c r="A2" s="8">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:2">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" ht="13.2" spans="1:2">
+      <c r="A4" s="8">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="6">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="6">
+      <c r="B4" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="13.2" spans="1:2">
+      <c r="A5" s="8">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" ht="13.2" spans="1:2">
+      <c r="A6" s="8">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
+      <c r="A9" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:2">
+      <c r="A10" s="8">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:2">
+      <c r="A11" s="8">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="6">
+    </row>
+    <row r="12" customHeight="1" spans="1:2">
+      <c r="A12" s="8">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="6">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" ht="13.2" spans="1:2">
-      <c r="A6" s="6">
-        <v>6</v>
-      </c>
-      <c r="B6" s="6">
-        <v>2</v>
-      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="8">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
+      <c r="A14" s="8">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
+      <c r="A15" s="8">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:2">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
+      <c r="A19" s="8">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:2">
+      <c r="A20" s="8">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -989,116 +1135,116 @@
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="6">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>2</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="6">
+      <c r="A3" s="7">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="6">
+      <c r="A5" s="7">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
-      <c r="A6" s="6">
+      <c r="A6" s="7">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>36</v>
       </c>
     </row>
     <row r="7" ht="13.2" spans="1:2">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>7</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="5">
         <v>49</v>
       </c>
     </row>
     <row r="8" ht="13.2" spans="1:2">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>8</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="5">
         <v>64</v>
       </c>
     </row>
     <row r="9" ht="13.2" spans="1:2">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>9</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="5">
         <v>81</v>
       </c>
     </row>
     <row r="10" ht="13.2" spans="1:2">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="11" ht="13.2" spans="1:2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" ht="13.2" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" ht="13.2" spans="1:2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" ht="13.2" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" ht="13.2" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" ht="13.2" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" ht="13.2" spans="1:2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" ht="13.2" spans="1:2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1120,108 +1266,108 @@
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="3">
+      <c r="A1" s="4">
         <v>3.5</v>
       </c>
-      <c r="B1" s="4">
+      <c r="B1" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="5">
         <v>4.5</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>5.9</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" ht="13.2" spans="1:2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" ht="13.2" spans="1:2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" ht="13.2" spans="1:2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" ht="13.2" spans="1:2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" ht="13.2" spans="1:2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
     </row>
     <row r="12" ht="13.2" spans="1:2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
     </row>
     <row r="13" ht="13.2" spans="1:2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
     </row>
     <row r="14" ht="13.2" spans="1:2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
     </row>
     <row r="15" ht="13.2" spans="1:2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" ht="13.2" spans="1:2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
     </row>
     <row r="17" ht="13.2" spans="1:2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
     </row>
     <row r="18" ht="13.2" spans="1:2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
     </row>
     <row r="19" ht="13.2" spans="1:2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
     </row>
     <row r="20" ht="13.2" spans="1:2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
     </row>
     <row r="21" ht="13.2" spans="1:2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1234,155 +1380,174 @@
   <sheetPr/>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="1"/>
+  <cols>
+    <col min="2" max="2" width="15.4444444444444"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>4</v>
+        <v>-1.25</v>
+      </c>
+      <c r="B1" s="2">
+        <v>0.0249609984399376</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2" s="2">
-        <v>4.5</v>
+        <v>0.0384615384615385</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>-0.75</v>
       </c>
       <c r="B3" s="2">
-        <v>2.5</v>
+        <v>0.0663900414937759</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>4</v>
+        <v>-0.5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.137931034482759</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.137931034482759</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.0663900414937759</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.0384615384615385</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.0249609984399376</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_points.xlsx
+++ b/data_points.xlsx
@@ -11,6 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -19,8 +20,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="#,000.000000000_);[Red]\(#,000.000000000\)"/>
     <numFmt numFmtId="178" formatCode="#,000_);[Red]\(#,000\)"/>
@@ -35,14 +36,75 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -53,19 +115,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -77,25 +138,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -107,47 +154,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,7 +169,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,13 +177,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,19 +212,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,12 +320,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -253,7 +332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -265,13 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -283,109 +368,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,54 +397,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,6 +424,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -488,6 +450,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -499,161 +500,161 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,202 +919,202 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="8">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="8">
+      <c r="B1" s="1">
         <v>84</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="8">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="1">
         <v>60</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="8">
+      <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="1">
         <v>48</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="8">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="8">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
-      <c r="A6" s="8">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>9.5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>5.5</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
-      <c r="A10" s="8">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="8">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
-      <c r="A12" s="8">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:2">
-      <c r="A13" s="8">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>9</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:2">
-      <c r="A14" s="8">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
-      <c r="A15" s="8">
+      <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>29</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>35</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>17</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>68</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="8">
+      <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>75</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="8">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>96</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
     </row>
     <row r="22" customHeight="1" spans="1:2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" customHeight="1" spans="1:2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
     </row>
     <row r="24" customHeight="1" spans="1:2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" customHeight="1" spans="1:2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" customHeight="1" spans="1:2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" customHeight="1" spans="1:2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
     </row>
     <row r="28" customHeight="1" spans="1:2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1135,116 +1136,116 @@
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="7">
+      <c r="A1" s="8">
         <v>1</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="7">
+      <c r="A3" s="8">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="7">
+      <c r="A4" s="8">
         <v>4</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>16</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="7">
+      <c r="A5" s="8">
         <v>5</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>25</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>6</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>36</v>
       </c>
     </row>
     <row r="7" ht="13.2" spans="1:2">
-      <c r="A7" s="5">
+      <c r="A7" s="6">
         <v>7</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="6">
         <v>49</v>
       </c>
     </row>
     <row r="8" ht="13.2" spans="1:2">
-      <c r="A8" s="5">
+      <c r="A8" s="6">
         <v>8</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="6">
         <v>64</v>
       </c>
     </row>
     <row r="9" ht="13.2" spans="1:2">
-      <c r="A9" s="5">
+      <c r="A9" s="6">
         <v>9</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="6">
         <v>81</v>
       </c>
     </row>
     <row r="10" ht="13.2" spans="1:2">
-      <c r="A10" s="5">
+      <c r="A10" s="6">
         <v>10</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="11" ht="13.2" spans="1:2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" ht="13.2" spans="1:2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" ht="13.2" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" ht="13.2" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" ht="13.2" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" ht="13.2" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" ht="13.2" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" ht="13.2" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1266,108 +1267,108 @@
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" ht="13.2" spans="1:2">
-      <c r="A1" s="4">
+      <c r="A1" s="5">
         <v>3.5</v>
       </c>
-      <c r="B1" s="5">
+      <c r="B1" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="13.2" spans="1:2">
-      <c r="A2" s="5">
+      <c r="A2" s="6">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>4.5</v>
       </c>
     </row>
     <row r="3" ht="13.2" spans="1:2">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.2" spans="1:2">
-      <c r="A4" s="5">
+      <c r="A4" s="6">
         <v>5.9</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="5" ht="13.2" spans="1:2">
-      <c r="A5" s="5">
+      <c r="A5" s="6">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="6" ht="13.2" spans="1:2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" ht="13.2" spans="1:2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" ht="13.2" spans="1:2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" ht="13.2" spans="1:2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" ht="13.2" spans="1:2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" ht="13.2" spans="1:2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" ht="13.2" spans="1:2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" ht="13.2" spans="1:2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" ht="13.2" spans="1:2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" ht="13.2" spans="1:2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" ht="13.2" spans="1:2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" ht="13.2" spans="1:2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" ht="13.2" spans="1:2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" ht="13.2" spans="1:2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" ht="13.2" spans="1:2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" ht="13.2" spans="1:2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1390,164 +1391,341 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
+      <c r="A1" s="2">
+        <v>-1.25</v>
+      </c>
+      <c r="B1" s="3">
+        <v>0.0249609984399376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0.0384615384615385</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>-0.75</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.0663900414937759</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
+        <v>-0.5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.137931034482759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.137931034482759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.0663900414937759</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.0384615384615385</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.0249609984399376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" s="1">
-        <v>-1.25</v>
-      </c>
-      <c r="B1" s="2">
-        <v>0.0249609984399376</v>
+        <v>1</v>
+      </c>
+      <c r="B1" s="1">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>-1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.0384615384615385</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>-0.75</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.0663900414937759</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>-0.5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.137931034482759</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.137931034482759</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <v>0.75</v>
+      <c r="A7" s="2">
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>0.0663900414937759</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <v>1</v>
+      <c r="A8" s="2">
+        <v>8</v>
       </c>
       <c r="B8" s="2">
-        <v>0.0384615384615385</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <v>1.25</v>
+      <c r="A9" s="2">
+        <v>9.5</v>
       </c>
       <c r="B9" s="2">
-        <v>0.0249609984399376</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
